--- a/Labs/Codigos_benchmark/Benchmark gráficas.xlsx
+++ b/Labs/Codigos_benchmark/Benchmark gráficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/gar19085_uvg_edu_gt/Documents/UVG/Tesis/Tesis_Rodrigo_Garcia/Labs/Codigos_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{FABDD7FD-6743-4204-B2FA-80C56CAF88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B72BCE-AD3D-4C28-9E99-F8B227047A9B}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{FABDD7FD-6743-4204-B2FA-80C56CAF88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFB86C6-4CE0-4491-B4E9-AA616B2182E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{02B580AD-A341-4B04-B4A3-94A7FA17B0AB}"/>
+    <workbookView xWindow="-14400" yWindow="15" windowWidth="14400" windowHeight="15750" xr2:uid="{02B580AD-A341-4B04-B4A3-94A7FA17B0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Rocky</t>
   </si>
@@ -55,13 +55,19 @@
   <si>
     <t>Oracle</t>
   </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Derivación estandar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,11 +139,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -165,11 +171,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -202,10 +208,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -214,13 +223,39 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -325,10 +360,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -337,13 +375,39 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -448,10 +512,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -460,13 +527,39 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -571,10 +664,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -583,13 +679,39 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -701,7 +823,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -717,9 +839,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -733,9 +855,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -763,7 +885,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -779,9 +901,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -795,9 +917,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -815,7 +937,21 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -837,9 +973,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -866,11 +1002,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -918,11 +1054,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -950,11 +1086,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -977,7 +1113,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -987,10 +1123,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -999,20 +1138,46 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1051,7 +1216,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$23</c:f>
+              <c:f>Sheet1!$B$15:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1100,7 +1265,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$13</c:f>
+              <c:f>Sheet1!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1110,10 +1275,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1122,20 +1290,46 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1174,7 +1368,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:f>Sheet1!$C$15:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1223,7 +1417,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>Sheet1!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1233,10 +1427,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1245,20 +1442,46 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1297,7 +1520,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$23</c:f>
+              <c:f>Sheet1!$D$15:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1346,7 +1569,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$13</c:f>
+              <c:f>Sheet1!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,10 +1579,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1368,20 +1594,46 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1420,7 +1672,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$E$23</c:f>
+              <c:f>Sheet1!$E$15:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1486,7 +1738,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1502,9 +1754,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -1518,9 +1770,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1548,7 +1800,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1564,9 +1816,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -1580,9 +1832,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1600,7 +1852,21 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1622,9 +1888,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1651,11 +1917,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1703,11 +1969,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1735,11 +2001,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1772,10 +2038,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1784,13 +2053,39 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1895,10 +2190,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1907,13 +2205,39 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2025,7 +2349,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2041,9 +2365,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -2057,9 +2381,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2087,7 +2411,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -2103,9 +2427,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -2119,9 +2443,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -2139,7 +2463,21 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2161,9 +2499,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -2190,11 +2528,1844 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ubuntu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-044A-4D1F-9892-3B0AF3BD64C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-044A-4D1F-9892-3B0AF3BD64C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1679756991"/>
+        <c:axId val="1689603775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1679756991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689603775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1689603775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1679756991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Oracle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$35:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$35:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E0A-4E48-8AB3-A8578E20D5C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$35:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$35:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E0A-4E48-8AB3-A8578E20D5C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1690832783"/>
+        <c:axId val="1690808223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1690832783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690808223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1690808223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690832783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Debian</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$35:$J$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$35:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3D4-4799-9671-C709C35F1101}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$35:$J$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$35:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3D4-4799-9671-C709C35F1101}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1145238783"/>
+        <c:axId val="1148091423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1145238783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148091423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1148091423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145238783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2341,36 +4512,156 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2378,20 +4669,20 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2399,16 +4690,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2442,39 +4733,66 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2483,18 +4801,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -2522,16 +4843,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2546,7 +4866,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2555,9 +4875,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2571,12 +4891,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2590,12 +4910,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2609,26 +4929,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2642,12 +4956,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -2661,14 +4975,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2680,12 +4994,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2699,27 +5013,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2727,11 +5058,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2739,12 +5081,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2758,12 +5100,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2772,14 +5114,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2788,7 +5129,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2800,21 +5141,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -2822,15 +5154,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -2838,55 +5170,49 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2894,20 +5220,20 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2915,16 +5241,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2958,39 +5284,66 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2999,18 +5352,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -3038,16 +5394,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3062,7 +5417,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3071,9 +5426,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3087,12 +5442,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3106,12 +5461,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3125,26 +5480,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3158,12 +5507,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -3177,14 +5526,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3196,12 +5545,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3215,27 +5564,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3243,11 +5609,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3255,12 +5632,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3274,12 +5651,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3288,14 +5665,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3304,7 +5680,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3316,21 +5692,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -3338,15 +5705,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -3354,55 +5721,49 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3410,20 +5771,20 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3431,16 +5792,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3474,39 +5835,66 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3515,18 +5903,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -3554,16 +5945,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3578,7 +5968,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3587,9 +5977,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3603,12 +5993,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3622,12 +6012,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3641,26 +6031,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3674,12 +6058,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -3693,14 +6077,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3712,12 +6096,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3731,27 +6115,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3759,11 +6160,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3771,12 +6183,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3790,12 +6202,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3804,14 +6216,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3820,7 +6231,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3832,7 +6243,91 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3840,51 +6335,1605 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3894,15 +7943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3930,15 +7979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3965,16 +8014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3994,6 +8043,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9F29CB-A717-2DBF-E184-082B477DCF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1EEB81-871F-3ED5-942F-A146FD421F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7F5799-AC9F-3488-839E-D713D4A028F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4299,13 +8456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6788AA18-A341-4083-AF94-66F47DABD25A}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -4564,6 +8724,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
       <c r="B12">
         <f>_xlfn.STDEV.S(B2:B11)</f>
         <v>7.2571803523590779E-3</v>
@@ -4591,20 +8754,24 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <f>AVERAGE(B2:B11)</f>
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:E13" si="0">AVERAGE(C2:C11)</f>
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0800000000000007E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8600000000000022E-2</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4617,20 +8784,20 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.129</v>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4644,188 +8811,535 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>0.158</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="D15" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.124</v>
       </c>
       <c r="E15" s="1">
-        <v>0.115</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>0.128</v>
+        <v>0.158</v>
       </c>
       <c r="C16" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="D16" s="1">
-        <v>0.126</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.121</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="C17" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.126</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.113</v>
-      </c>
       <c r="E17" s="1">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>0.11899999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="D18" s="1">
-        <v>0.127</v>
+        <v>0.113</v>
       </c>
       <c r="E18" s="1">
-        <v>0.121</v>
+        <v>0.126</v>
       </c>
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>0.13400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.124</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>0.13100000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="E19" s="1">
-        <v>0.115</v>
+        <v>0.121</v>
       </c>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="D20" s="1">
-        <v>0.127</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.11799999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="D21" s="1">
-        <v>0.105</v>
+        <v>0.127</v>
       </c>
       <c r="E21" s="1">
-        <v>0.126</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
-        <v>0.154</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.128</v>
+        <v>0.126</v>
       </c>
       <c r="D22" s="1">
-        <v>0.124</v>
+        <v>0.105</v>
       </c>
       <c r="E22" s="1">
-        <v>0.13100000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="C23" s="1">
-        <v>0.12</v>
+        <v>0.128</v>
       </c>
       <c r="D23" s="1">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="E23" s="1">
-        <v>0.121</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>_xlfn.STDEV.S(B14:B23)</f>
-        <v>1.7320828822868416E-2</v>
-      </c>
-      <c r="C24">
-        <f>_xlfn.STDEV.S(C14:C23)</f>
-        <v>4.6475800154489036E-3</v>
-      </c>
-      <c r="D24">
-        <f>_xlfn.STDEV.S(D14:D23)</f>
-        <v>1.1415875885021798E-2</v>
-      </c>
-      <c r="E24">
-        <f>_xlfn.STDEV.S(E14:E23)</f>
-        <v>5.5587768438749192E-3</v>
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.121</v>
       </c>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f>_xlfn.STDEV.S(B15:B24)</f>
+        <v>1.7320828822868416E-2</v>
+      </c>
+      <c r="C25">
+        <f>_xlfn.STDEV.S(C15:C24)</f>
+        <v>4.6475800154489036E-3</v>
+      </c>
+      <c r="D25">
+        <f>_xlfn.STDEV.S(D15:D24)</f>
+        <v>1.1415875885021798E-2</v>
+      </c>
+      <c r="E25">
+        <f>_xlfn.STDEV.S(E15:E24)</f>
+        <v>5.5587768438749192E-3</v>
+      </c>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <f>AVERAGE(B15:B24)</f>
+        <v>0.1507</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ref="C26:E26" si="1">AVERAGE(C15:C24)</f>
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11989999999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12229999999999999</v>
+      </c>
       <c r="R26" s="1"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Labs/Codigos_benchmark/Benchmark gráficas.xlsx
+++ b/Labs/Codigos_benchmark/Benchmark gráficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/gar19085_uvg_edu_gt/Documents/UVG/Tesis/Tesis_Rodrigo_Garcia/Labs/Codigos_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{FABDD7FD-6743-4204-B2FA-80C56CAF88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFB86C6-4CE0-4491-B4E9-AA616B2182E3}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{FABDD7FD-6743-4204-B2FA-80C56CAF88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2382005F-8A69-45A1-92BE-7CC5B1BDB98C}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="15" windowWidth="14400" windowHeight="15750" xr2:uid="{02B580AD-A341-4B04-B4A3-94A7FA17B0AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{02B580AD-A341-4B04-B4A3-94A7FA17B0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,6 +833,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. de Intentos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -895,10 +948,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Porcentaje</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> de CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="rnd">
@@ -1748,6 +1862,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. de Intentos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1810,6 +1983,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Porcentaje de CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="0.343267351997667"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2359,6 +2596,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. de Intentos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2421,6 +2717,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Porcentaje de CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2607,26 +2956,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2970,6 +3299,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. de Intentos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3032,6 +3383,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Porcentaje de CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3218,26 +3591,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3581,6 +3934,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. de Intentos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3643,6 +4018,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Porcentaje de CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3829,26 +4226,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4192,6 +4569,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. de Intentos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4254,6 +4653,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Porcentaje de CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4512,126 +4933,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
@@ -5735,1659 +6036,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8157,6 +6805,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8459,7 +7111,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Labs/Codigos_benchmark/Benchmark gráficas.xlsx
+++ b/Labs/Codigos_benchmark/Benchmark gráficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/gar19085_uvg_edu_gt/Documents/UVG/Tesis/Tesis_Rodrigo_Garcia/Labs/Codigos_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{FABDD7FD-6743-4204-B2FA-80C56CAF88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2382005F-8A69-45A1-92BE-7CC5B1BDB98C}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{FABDD7FD-6743-4204-B2FA-80C56CAF88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92365A68-9065-4397-9B4B-3C9225BE13B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{02B580AD-A341-4B04-B4A3-94A7FA17B0AB}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15990" xr2:uid="{02B580AD-A341-4B04-B4A3-94A7FA17B0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Rocky</t>
   </si>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,13 +94,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2964,8 +2984,230 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C6A-492A-87F0-A53CA2DFF938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$35:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1C6A-492A-87F0-A53CA2DFF938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$34</c:f>
@@ -3111,13 +3353,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-044A-4D1F-9892-3B0AF3BD64C7}"/>
+              <c16:uniqueId val="{00000001-1C6A-492A-87F0-A53CA2DFF938}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$34</c:f>
@@ -3263,7 +3505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-044A-4D1F-9892-3B0AF3BD64C7}"/>
+              <c16:uniqueId val="{00000003-1C6A-492A-87F0-A53CA2DFF938}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3501,14 +3743,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7111,7 +7347,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="O33" sqref="O33:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,7 +7919,13 @@
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7702,8 +7944,14 @@
       <c r="L34" t="s">
         <v>4</v>
       </c>
+      <c r="O34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1</v>
       </c>
@@ -7731,8 +7979,14 @@
       <c r="L35" s="1">
         <v>0.129</v>
       </c>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.122</v>
+      </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2</v>
       </c>
@@ -7761,7 +8015,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3</v>
       </c>
@@ -7790,7 +8044,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>4</v>
       </c>
@@ -7819,7 +8073,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5</v>
       </c>
@@ -7848,7 +8102,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>6</v>
       </c>
@@ -7877,7 +8131,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>7</v>
       </c>
@@ -7906,7 +8160,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>8</v>
       </c>
@@ -7935,7 +8189,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>9</v>
       </c>
@@ -7964,7 +8218,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>10</v>
       </c>
@@ -7994,6 +8248,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O33:P33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
